--- a/biology/Botanique/Bessera/Bessera.xlsx
+++ b/biology/Botanique/Bessera/Bessera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bessera est un  genre  de plantes de la famille des thémidacées, également placé dans les aliacées ou les liliacées.
 Ce genre de taille modeste comprend des plantes herbacées dont la croissance se fait à partir de bulbes. Elles sont pérennes, natives du Mexique. Leurs fleurs possèdent à la fois des pétales et des sépales pétaloïdes. Leurs pistils sont composés.
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (3 juin 2010)[1] et NCBI  (3 juin 2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (3 juin 2010) et NCBI  (3 juin 2010) :
 Bessera elegans Schult.f. (1829)
 Bessera tenuiflora (Greene) J.F.Macbr. (1918)
 Bessera tuitensis R.Delgad. (1992)</t>
